--- a/temp/pages/be-practitioner.xlsx
+++ b/temp/pages/be-practitioner.xlsx
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>An identifier that applies to this person in this role.
-Typically, a NIHDI value and/or a SSIN value are given. Other systems remain allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed.</t>
+Typically, a NIHDI value and/or a SSIN value are given. Other systems remain allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When it is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Often, specific identities are assigned for the agent.</t>
@@ -2232,7 +2232,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
